--- a/results/synthetic_constraint_0.1_opt_constrained/k=0.1/ROI_greedy/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/synthetic_constraint_0.1_opt_constrained/k=0.1/ROI_greedy/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konstantina\Desktop\HDrop20-Master-Thesis-Experiments\results\synthetic_constraint_0.1_opt_constrained\k=0.1\ROI_greedy\dataset_10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7A4D6C-8AF4-419A-BA0B-B968134FFB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>dataset</t>
   </si>
@@ -182,13 +201,25 @@
   </si>
   <si>
     <t>Official_Experiment_ROI_dataset_10_instance_30_29_exec</t>
+  </si>
+  <si>
+    <t>Average of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Average of SC(S*)/SC(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SW(S*)/SW(OPT)</t>
+  </si>
+  <si>
+    <t>Worst of SC(S*)/SC(OPT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +233,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -240,22 +280,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -297,7 +348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +380,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,6 +432,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,14 +625,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -642,19 +731,19 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>736.2352084334483</v>
+        <v>736.23520843344829</v>
       </c>
       <c r="H2">
-        <v>148.6334790573788</v>
+        <v>148.63347905737879</v>
       </c>
       <c r="I2">
-        <v>587.6017293760694</v>
+        <v>587.60172937606944</v>
       </c>
       <c r="J2">
         <v>0.1</v>
       </c>
       <c r="K2">
-        <v>662.1853668049474</v>
+        <v>662.18536680494742</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -663,46 +752,46 @@
         <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0.8873674333989817</v>
+        <v>0.88736743339898172</v>
       </c>
       <c r="O2">
-        <v>826.9910076585455</v>
+        <v>826.99100765854553</v>
       </c>
       <c r="P2">
-        <v>164.8056408535981</v>
+        <v>164.80564085359811</v>
       </c>
       <c r="Q2">
         <v>1.613026976146464</v>
       </c>
       <c r="R2">
-        <v>396.349422286988</v>
+        <v>396.34942228698799</v>
       </c>
       <c r="S2">
-        <v>5.017977560568979</v>
+        <v>5.0179775605689789</v>
       </c>
       <c r="T2">
-        <v>4.95336052888347</v>
+        <v>4.9533605288834703</v>
       </c>
       <c r="U2">
         <v>1.600066240959757</v>
       </c>
       <c r="V2">
-        <v>349.7783172599586</v>
+        <v>349.77831725995861</v>
       </c>
       <c r="W2">
-        <v>356.6921074414965</v>
+        <v>356.69210744149649</v>
       </c>
       <c r="X2">
-        <v>944.293836817566</v>
+        <v>944.29383681756599</v>
       </c>
       <c r="Y2">
-        <v>282.1084700126186</v>
+        <v>282.10847001261862</v>
       </c>
       <c r="Z2">
         <v>1.26437929150281</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -722,13 +811,13 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <v>921.7699499684304</v>
+        <v>921.76994996843041</v>
       </c>
       <c r="H3">
-        <v>121.3652670232189</v>
+        <v>121.36526702321891</v>
       </c>
       <c r="I3">
-        <v>800.4046829452116</v>
+        <v>800.40468294521156</v>
       </c>
       <c r="J3">
         <v>0.1</v>
@@ -743,46 +832,46 @@
         <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.9955601764766706</v>
+        <v>0.99556017647667061</v>
       </c>
       <c r="O3">
-        <v>929.5178375631195</v>
+        <v>929.51783756311954</v>
       </c>
       <c r="P3">
         <v>125.543651112756</v>
       </c>
       <c r="Q3">
-        <v>2.0020124817414</v>
+        <v>2.0020124817413998</v>
       </c>
       <c r="R3">
-        <v>552.6342299192385</v>
+        <v>552.63422991923846</v>
       </c>
       <c r="S3">
-        <v>7.403941412603023</v>
+        <v>7.4039414126030234</v>
       </c>
       <c r="T3">
-        <v>7.595006154372674</v>
+        <v>7.5950061543726743</v>
       </c>
       <c r="U3">
-        <v>2.027490946366391</v>
+        <v>2.0274909463663908</v>
       </c>
       <c r="V3">
-        <v>554.3377028522957</v>
+        <v>554.33770285229571</v>
       </c>
       <c r="W3">
         <v>154.8357477014018</v>
       </c>
       <c r="X3">
-        <v>955.2404306466134</v>
+        <v>955.24043064661339</v>
       </c>
       <c r="Y3">
-        <v>151.2662441962499</v>
+        <v>151.26624419624989</v>
       </c>
       <c r="Z3">
         <v>1.023597488812646</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -802,19 +891,19 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>890.0532216241061</v>
+        <v>890.05322162410607</v>
       </c>
       <c r="H4">
-        <v>72.74237007858669</v>
+        <v>72.742370078586688</v>
       </c>
       <c r="I4">
-        <v>817.3108515455194</v>
+        <v>817.31085154551943</v>
       </c>
       <c r="J4">
         <v>0.1</v>
       </c>
       <c r="K4">
-        <v>911.580570287958</v>
+        <v>911.58057028795804</v>
       </c>
       <c r="L4">
         <v>5</v>
@@ -823,46 +912,46 @@
         <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.8965865203635704</v>
+        <v>0.89658652036357045</v>
       </c>
       <c r="O4">
         <v>1040.112745087449</v>
       </c>
       <c r="P4">
-        <v>128.5321747994915</v>
+        <v>128.53217479949149</v>
       </c>
       <c r="Q4">
-        <v>2.090905134459322</v>
+        <v>2.0909051344593221</v>
       </c>
       <c r="R4">
-        <v>642.8319860564782</v>
+        <v>642.83198605647817</v>
       </c>
       <c r="S4">
         <v>8.092236412478135</v>
       </c>
       <c r="T4">
-        <v>12.2356918074369</v>
+        <v>12.235691807436901</v>
       </c>
       <c r="U4">
-        <v>2.504357238609313</v>
+        <v>2.5043572386093129</v>
       </c>
       <c r="V4">
-        <v>635.1379704856133</v>
+        <v>635.13797048561332</v>
       </c>
       <c r="W4">
-        <v>308.397703073209</v>
+        <v>308.39770307320902</v>
       </c>
       <c r="X4">
-        <v>1125.708554618728</v>
+        <v>1125.7085546187279</v>
       </c>
       <c r="Y4">
-        <v>214.1279843307703</v>
+        <v>214.12798433077029</v>
       </c>
       <c r="Z4">
-        <v>1.440249409889448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>1.4402494098894481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -885,16 +974,16 @@
         <v>869.6355312704286</v>
       </c>
       <c r="H5">
-        <v>117.9108935677587</v>
+        <v>117.91089356775871</v>
       </c>
       <c r="I5">
-        <v>751.72463770267</v>
+        <v>751.72463770266995</v>
       </c>
       <c r="J5">
         <v>0.1</v>
       </c>
       <c r="K5">
-        <v>803.650222023701</v>
+        <v>803.65022202370096</v>
       </c>
       <c r="L5">
         <v>5</v>
@@ -903,25 +992,25 @@
         <v>0.1</v>
       </c>
       <c r="N5">
-        <v>0.9353878305536016</v>
+        <v>0.93538783055360164</v>
       </c>
       <c r="O5">
-        <v>963.4324098575811</v>
+        <v>963.43240985758109</v>
       </c>
       <c r="P5">
-        <v>159.7821878338804</v>
+        <v>159.78218783388041</v>
       </c>
       <c r="Q5">
-        <v>1.796690773003453</v>
+        <v>1.7966907730034529</v>
       </c>
       <c r="R5">
-        <v>516.571039452263</v>
+        <v>516.57103945226299</v>
       </c>
       <c r="S5">
-        <v>6.029660895989394</v>
+        <v>6.0296608959893936</v>
       </c>
       <c r="T5">
-        <v>7.375362063308288</v>
+        <v>7.3753620633082884</v>
       </c>
       <c r="U5">
         <v>1.998144994350783</v>
@@ -930,19 +1019,19 @@
         <v>516.1215759408251</v>
       </c>
       <c r="W5">
-        <v>293.4682559862765</v>
+        <v>293.46825598627652</v>
       </c>
       <c r="X5">
         <v>1045.192893688946</v>
       </c>
       <c r="Y5">
-        <v>241.5426716652455</v>
+        <v>241.54267166524551</v>
       </c>
       <c r="Z5">
         <v>1.214974786703505</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -962,19 +1051,19 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>987.1771066683214</v>
+        <v>987.17710666832136</v>
       </c>
       <c r="H6">
-        <v>138.4708632166977</v>
+        <v>138.47086321669769</v>
       </c>
       <c r="I6">
-        <v>848.7062434516237</v>
+        <v>848.70624345162366</v>
       </c>
       <c r="J6">
         <v>0.1</v>
       </c>
       <c r="K6">
-        <v>848.7062434516238</v>
+        <v>848.70624345162378</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -983,46 +1072,46 @@
         <v>0.1</v>
       </c>
       <c r="N6">
-        <v>0.9999999999999999</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O6">
-        <v>987.1771066683214</v>
+        <v>987.17710666832136</v>
       </c>
       <c r="P6">
-        <v>138.4708632166977</v>
+        <v>138.47086321669769</v>
       </c>
       <c r="Q6">
         <v>1.964189533107382</v>
       </c>
       <c r="R6">
-        <v>576.723223281042</v>
+        <v>576.72322328104201</v>
       </c>
       <c r="S6">
-        <v>7.129132322396623</v>
+        <v>7.1291323223966234</v>
       </c>
       <c r="T6">
-        <v>7.129132322396623</v>
+        <v>7.1291323223966234</v>
       </c>
       <c r="U6">
         <v>1.964189533107382</v>
       </c>
       <c r="V6">
-        <v>576.723223281042</v>
+        <v>576.72322328104201</v>
       </c>
       <c r="W6">
-        <v>179.3224487962221</v>
+        <v>179.32244879622209</v>
       </c>
       <c r="X6">
         <v>1028.028692247846</v>
       </c>
       <c r="Y6">
-        <v>179.322448796222</v>
+        <v>179.32244879622201</v>
       </c>
       <c r="Z6">
-        <v>1.000000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>1.0000000000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1048,13 +1137,13 @@
         <v>125.733076056684</v>
       </c>
       <c r="I7">
-        <v>889.6043142141968</v>
+        <v>889.60431421419685</v>
       </c>
       <c r="J7">
         <v>0.1</v>
       </c>
       <c r="K7">
-        <v>889.6043142141971</v>
+        <v>889.60431421419707</v>
       </c>
       <c r="L7">
         <v>5</v>
@@ -1063,7 +1152,7 @@
         <v>0.1</v>
       </c>
       <c r="N7">
-        <v>0.9999999999999998</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="O7">
         <v>1015.337390270881</v>
@@ -1072,37 +1161,37 @@
         <v>125.733076056684</v>
       </c>
       <c r="Q7">
-        <v>2.088815024569283</v>
+        <v>2.0888150245692829</v>
       </c>
       <c r="R7">
-        <v>626.9711758616828</v>
+        <v>626.97117586168281</v>
       </c>
       <c r="S7">
-        <v>8.075340412519122</v>
+        <v>8.0753404125191217</v>
       </c>
       <c r="T7">
-        <v>8.075340412519122</v>
+        <v>8.0753404125191217</v>
       </c>
       <c r="U7">
-        <v>2.088815024569283</v>
+        <v>2.0888150245692829</v>
       </c>
       <c r="V7">
-        <v>626.9711758616828</v>
+        <v>626.97117586168281</v>
       </c>
       <c r="W7">
-        <v>160.9540012449156</v>
+        <v>160.95400124491559</v>
       </c>
       <c r="X7">
         <v>1050.558315459112</v>
       </c>
       <c r="Y7">
-        <v>160.9540012449154</v>
+        <v>160.95400124491539</v>
       </c>
       <c r="Z7">
-        <v>1.000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>1.0000000000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1122,19 +1211,19 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>962.6550425110918</v>
+        <v>962.65504251109178</v>
       </c>
       <c r="H8">
-        <v>110.5122115857555</v>
+        <v>110.51221158575549</v>
       </c>
       <c r="I8">
-        <v>852.1428309253363</v>
+        <v>852.14283092533628</v>
       </c>
       <c r="J8">
         <v>0.1</v>
       </c>
       <c r="K8">
-        <v>872.2969157683831</v>
+        <v>872.29691576838309</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1143,22 +1232,22 @@
         <v>0.1</v>
       </c>
       <c r="N8">
-        <v>0.9768953844972688</v>
+        <v>0.97689538449726876</v>
       </c>
       <c r="O8">
-        <v>991.3786179361476</v>
+        <v>991.37861793614763</v>
       </c>
       <c r="P8">
         <v>119.0817021677646</v>
       </c>
       <c r="Q8">
-        <v>2.119286687442573</v>
+        <v>2.1192866874425729</v>
       </c>
       <c r="R8">
-        <v>619.9286496462381</v>
+        <v>619.92864964623811</v>
       </c>
       <c r="S8">
-        <v>8.325196901699258</v>
+        <v>8.3251969016992575</v>
       </c>
       <c r="T8">
         <v>8.710847685498436</v>
@@ -1167,22 +1256,22 @@
         <v>2.164569109377771</v>
       </c>
       <c r="V8">
-        <v>612.9315115177898</v>
+        <v>612.93151151778977</v>
       </c>
       <c r="W8">
-        <v>250.2358848544125</v>
+        <v>250.23588485441249</v>
       </c>
       <c r="X8">
         <v>1102.378715779749</v>
       </c>
       <c r="Y8">
-        <v>230.0818000113657</v>
+        <v>230.08180001136569</v>
       </c>
       <c r="Z8">
-        <v>1.087595302375291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>1.0875953023752909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1202,19 +1291,19 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>863.3551773428306</v>
+        <v>863.35517734283064</v>
       </c>
       <c r="H9">
-        <v>116.4639985646945</v>
+        <v>116.46399856469451</v>
       </c>
       <c r="I9">
-        <v>746.8911787781361</v>
+        <v>746.89117877813612</v>
       </c>
       <c r="J9">
         <v>0.1</v>
       </c>
       <c r="K9">
-        <v>775.9535713270766</v>
+        <v>775.95357132707659</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -1223,10 +1312,10 @@
         <v>0.1</v>
       </c>
       <c r="N9">
-        <v>0.9625462223219923</v>
+        <v>0.96254622232199227</v>
       </c>
       <c r="O9">
-        <v>979.6674177494514</v>
+        <v>979.66741774945137</v>
       </c>
       <c r="P9">
         <v>203.7138464223749</v>
@@ -1238,31 +1327,31 @@
         <v>456.0216174398542</v>
       </c>
       <c r="S9">
-        <v>4.809036965107589</v>
+        <v>4.8090369651075893</v>
       </c>
       <c r="T9">
-        <v>7.413064878270052</v>
+        <v>7.4130648782700517</v>
       </c>
       <c r="U9">
-        <v>2.003243967595013</v>
+        <v>2.0032439675950129</v>
       </c>
       <c r="V9">
-        <v>513.5853762114176</v>
+        <v>513.58537621141761</v>
       </c>
       <c r="W9">
-        <v>315.4059563350651</v>
+        <v>315.40595633506513</v>
       </c>
       <c r="X9">
         <v>1062.297135113201</v>
       </c>
       <c r="Y9">
-        <v>286.3435637861246</v>
+        <v>286.34356378612461</v>
       </c>
       <c r="Z9">
         <v>1.101494834263667</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1282,19 +1371,19 @@
         <v>5</v>
       </c>
       <c r="G10">
-        <v>669.7928056084396</v>
+        <v>669.79280560843961</v>
       </c>
       <c r="H10">
         <v>123.4806954391039</v>
       </c>
       <c r="I10">
-        <v>546.3121101693357</v>
+        <v>546.31211016933571</v>
       </c>
       <c r="J10">
         <v>0.1</v>
       </c>
       <c r="K10">
-        <v>682.7561740737708</v>
+        <v>682.75617407377081</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -1303,22 +1392,22 @@
         <v>0.1</v>
       </c>
       <c r="N10">
-        <v>0.8001569680573953</v>
+        <v>0.80015696805739533</v>
       </c>
       <c r="O10">
-        <v>877.2903603115437</v>
+        <v>877.29036031154374</v>
       </c>
       <c r="P10">
-        <v>194.5341862377728</v>
+        <v>194.53418623777279</v>
       </c>
       <c r="Q10">
         <v>1.506230108837336</v>
       </c>
       <c r="R10">
-        <v>389.7429255642678</v>
+        <v>389.74292556426781</v>
       </c>
       <c r="S10">
-        <v>4.509697638641572</v>
+        <v>4.5096976386415717</v>
       </c>
       <c r="T10">
         <v>5.424271407175195</v>
@@ -1327,22 +1416,22 @@
         <v>1.690883587582243</v>
       </c>
       <c r="V10">
-        <v>337.5206288681135</v>
+        <v>337.52062886811348</v>
       </c>
       <c r="W10">
-        <v>420.4862853271546</v>
+        <v>420.48628532715458</v>
       </c>
       <c r="X10">
-        <v>966.7983954964903</v>
+        <v>966.79839549649034</v>
       </c>
       <c r="Y10">
-        <v>284.0422214227195</v>
+        <v>284.04222142271948</v>
       </c>
       <c r="Z10">
-        <v>1.480365430255438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>1.4803654302554381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1365,16 +1454,16 @@
         <v>745.5803326637639</v>
       </c>
       <c r="H11">
-        <v>96.96657080285601</v>
+        <v>96.966570802856012</v>
       </c>
       <c r="I11">
-        <v>648.6137618609079</v>
+        <v>648.61376186090786</v>
       </c>
       <c r="J11">
         <v>0.1</v>
       </c>
       <c r="K11">
-        <v>752.2732868669984</v>
+        <v>752.27328686699843</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -1383,46 +1472,46 @@
         <v>0.1</v>
       </c>
       <c r="N11">
-        <v>0.8622049635208999</v>
+        <v>0.86220496352089993</v>
       </c>
       <c r="O11">
-        <v>877.9226613709614</v>
+        <v>877.92266137096135</v>
       </c>
       <c r="P11">
         <v>125.6493745039628</v>
       </c>
       <c r="Q11">
-        <v>1.94406321886156</v>
+        <v>1.9440632188615601</v>
       </c>
       <c r="R11">
-        <v>508.0029594208831</v>
+        <v>508.00295942088309</v>
       </c>
       <c r="S11">
-        <v>6.987083420325925</v>
+        <v>6.9870834203259253</v>
       </c>
       <c r="T11">
-        <v>7.689045064609049</v>
+        <v>7.6890450646090489</v>
       </c>
       <c r="U11">
         <v>2.03979659695224</v>
       </c>
       <c r="V11">
-        <v>450.8216807191137</v>
+        <v>450.82168071911371</v>
       </c>
       <c r="W11">
-        <v>370.1691516502939</v>
+        <v>370.16915165029388</v>
       </c>
       <c r="X11">
         <v>1018.782913511202</v>
       </c>
       <c r="Y11">
-        <v>266.5096266442033</v>
+        <v>266.50962664420331</v>
       </c>
       <c r="Z11">
         <v>1.388952272799056</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1442,19 +1531,19 @@
         <v>5</v>
       </c>
       <c r="G12">
-        <v>834.8179380411954</v>
+        <v>834.81793804119536</v>
       </c>
       <c r="H12">
-        <v>84.93688281274189</v>
+        <v>84.936882812741885</v>
       </c>
       <c r="I12">
-        <v>749.8810552284535</v>
+        <v>749.88105522845353</v>
       </c>
       <c r="J12">
         <v>0.1</v>
       </c>
       <c r="K12">
-        <v>779.33574134013</v>
+        <v>779.33574134012997</v>
       </c>
       <c r="L12">
         <v>5</v>
@@ -1463,46 +1552,46 @@
         <v>0.1</v>
       </c>
       <c r="N12">
-        <v>0.9622053955064004</v>
+        <v>0.96220539550640038</v>
       </c>
       <c r="O12">
-        <v>907.3184647118813</v>
+        <v>907.31846471188135</v>
       </c>
       <c r="P12">
-        <v>127.9827233717513</v>
+        <v>127.98272337175131</v>
       </c>
       <c r="Q12">
-        <v>1.95859822609192</v>
+        <v>1.9585982260919199</v>
       </c>
       <c r="R12">
-        <v>528.6690063738051</v>
+        <v>528.66900637380513</v>
       </c>
       <c r="S12">
-        <v>7.089382385436465</v>
+        <v>7.0893823854364646</v>
       </c>
       <c r="T12">
-        <v>9.828685847603998</v>
+        <v>9.8286858476039978</v>
       </c>
       <c r="U12">
         <v>2.28530523728756</v>
       </c>
       <c r="V12">
-        <v>555.7743520976147</v>
+        <v>555.77435209761472</v>
       </c>
       <c r="W12">
-        <v>230.0407354186418</v>
+        <v>230.04073541864179</v>
       </c>
       <c r="X12">
-        <v>979.9217906470953</v>
+        <v>979.92179064709535</v>
       </c>
       <c r="Y12">
-        <v>200.5860493069654</v>
+        <v>200.58604930696541</v>
       </c>
       <c r="Z12">
-        <v>1.146843143944675</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>1.1468431439446749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1522,19 +1611,19 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>966.9138898746444</v>
+        <v>966.91388987464438</v>
       </c>
       <c r="H13">
         <v>113.0286317602019</v>
       </c>
       <c r="I13">
-        <v>853.8852581144424</v>
+        <v>853.88525811444242</v>
       </c>
       <c r="J13">
         <v>0.1</v>
       </c>
       <c r="K13">
-        <v>878.806259992645</v>
+        <v>878.80625999264498</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1543,31 +1632,31 @@
         <v>0.1</v>
       </c>
       <c r="N13">
-        <v>0.9716422116992987</v>
+        <v>0.97164221169929865</v>
       </c>
       <c r="O13">
         <v>1010.403077700276</v>
       </c>
       <c r="P13">
-        <v>131.5968177076315</v>
+        <v>131.59681770763149</v>
       </c>
       <c r="Q13">
-        <v>2.038361780007407</v>
+        <v>2.0383617800074072</v>
       </c>
       <c r="R13">
-        <v>610.5643364068067</v>
+        <v>610.56433640680666</v>
       </c>
       <c r="S13">
-        <v>7.678020603393978</v>
+        <v>7.6780206033939784</v>
       </c>
       <c r="T13">
-        <v>8.554592538340366</v>
+        <v>8.5545925383403656</v>
       </c>
       <c r="U13">
-        <v>2.146468277728338</v>
+        <v>2.1464682777283381</v>
       </c>
       <c r="V13">
-        <v>611.2728855661313</v>
+        <v>611.27288556613132</v>
       </c>
       <c r="W13">
         <v>220.5047895642272</v>
@@ -1576,13 +1665,13 @@
         <v>1074.39004767867</v>
       </c>
       <c r="Y13">
-        <v>195.5837876860246</v>
+        <v>195.58378768602461</v>
       </c>
       <c r="Z13">
-        <v>1.127418546153779</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>1.1274185461537789</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1602,19 +1691,19 @@
         <v>5</v>
       </c>
       <c r="G14">
-        <v>946.6155373213809</v>
+        <v>946.61553732138088</v>
       </c>
       <c r="H14">
-        <v>125.7806893058764</v>
+        <v>125.78068930587639</v>
       </c>
       <c r="I14">
-        <v>820.8348480155045</v>
+        <v>820.83484801550446</v>
       </c>
       <c r="J14">
         <v>0.1</v>
       </c>
       <c r="K14">
-        <v>844.5454654022458</v>
+        <v>844.54546540224578</v>
       </c>
       <c r="L14">
         <v>5</v>
@@ -1623,46 +1712,46 @@
         <v>0.1</v>
       </c>
       <c r="N14">
-        <v>0.971924995920204</v>
+        <v>0.97192499592020398</v>
       </c>
       <c r="O14">
-        <v>1041.684261489453</v>
+        <v>1041.6842614894531</v>
       </c>
       <c r="P14">
-        <v>197.1387960872069</v>
+        <v>197.13879608720691</v>
       </c>
       <c r="Q14">
-        <v>1.664686135063498</v>
+        <v>1.6646861350634981</v>
       </c>
       <c r="R14">
-        <v>516.3712448727624</v>
+        <v>516.37124487276242</v>
       </c>
       <c r="S14">
-        <v>5.284014522583623</v>
+        <v>5.2840145225836226</v>
       </c>
       <c r="T14">
-        <v>7.525921049926662</v>
+        <v>7.5259210499266622</v>
       </c>
       <c r="U14">
-        <v>2.018353201806185</v>
+        <v>2.0183532018061849</v>
       </c>
       <c r="V14">
-        <v>566.9649910295998</v>
+        <v>566.96499102959979</v>
       </c>
       <c r="W14">
-        <v>244.024553857426</v>
+        <v>244.02455385742601</v>
       </c>
       <c r="X14">
         <v>1064.85940187293</v>
       </c>
       <c r="Y14">
-        <v>220.3139364706847</v>
+        <v>220.31393647068469</v>
       </c>
       <c r="Z14">
-        <v>1.107621958767444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>1.1076219587674441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1685,16 +1774,16 @@
         <v>1044.968382506549</v>
       </c>
       <c r="H15">
-        <v>142.8627227836758</v>
+        <v>142.86272278367579</v>
       </c>
       <c r="I15">
-        <v>902.1056597228737</v>
+        <v>902.10565972287372</v>
       </c>
       <c r="J15">
         <v>0.1</v>
       </c>
       <c r="K15">
-        <v>932.0057660290917</v>
+        <v>932.00576602909166</v>
       </c>
       <c r="L15">
         <v>5</v>
@@ -1703,46 +1792,46 @@
         <v>0.1</v>
       </c>
       <c r="N15">
-        <v>0.9679185393523793</v>
+        <v>0.96791853935237926</v>
       </c>
       <c r="O15">
-        <v>1095.641849524988</v>
+        <v>1095.6418495249879</v>
       </c>
       <c r="P15">
         <v>163.636083495897</v>
       </c>
       <c r="Q15">
-        <v>1.901450675358476</v>
+        <v>1.9014506753584759</v>
       </c>
       <c r="R15">
-        <v>620.8598245528021</v>
+        <v>620.85982455280214</v>
       </c>
       <c r="S15">
-        <v>6.695600543094523</v>
+        <v>6.6956005430945229</v>
       </c>
       <c r="T15">
-        <v>7.314492977211778</v>
+        <v>7.3144929772117777</v>
       </c>
       <c r="U15">
-        <v>1.989857719316844</v>
+        <v>1.9898577193168441</v>
       </c>
       <c r="V15">
-        <v>617.8291679891541</v>
+        <v>617.82916798915414</v>
       </c>
       <c r="W15">
-        <v>245.4431134811477</v>
+        <v>245.44311348114769</v>
       </c>
       <c r="X15">
         <v>1147.548773204021</v>
       </c>
       <c r="Y15">
-        <v>215.5430071749298</v>
+        <v>215.54300717492981</v>
       </c>
       <c r="Z15">
-        <v>1.138719908839129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>1.1387199088391291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1762,19 +1851,19 @@
         <v>5</v>
       </c>
       <c r="G16">
-        <v>709.8844386976238</v>
+        <v>709.88443869762375</v>
       </c>
       <c r="H16">
-        <v>68.88859250014102</v>
+        <v>68.888592500141016</v>
       </c>
       <c r="I16">
-        <v>640.9958461974827</v>
+        <v>640.99584619748271</v>
       </c>
       <c r="J16">
         <v>0.1</v>
       </c>
       <c r="K16">
-        <v>780.9453305191142</v>
+        <v>780.94533051911424</v>
       </c>
       <c r="L16">
         <v>5</v>
@@ -1783,13 +1872,13 @@
         <v>0.1</v>
       </c>
       <c r="N16">
-        <v>0.8207947741635083</v>
+        <v>0.82079477416350832</v>
       </c>
       <c r="O16">
         <v>1028.066037583965</v>
       </c>
       <c r="P16">
-        <v>247.1207070648504</v>
+        <v>247.12070706485039</v>
       </c>
       <c r="Q16">
         <v>1.425557773019891</v>
@@ -1798,31 +1887,31 @@
         <v>428.660485688645</v>
       </c>
       <c r="S16">
-        <v>4.160177630578628</v>
+        <v>4.1601776305786284</v>
       </c>
       <c r="T16">
         <v>10.30481844575603</v>
       </c>
       <c r="U16">
-        <v>2.332611596114057</v>
+        <v>2.3326115961140572</v>
       </c>
       <c r="V16">
-        <v>480.3055164916779</v>
+        <v>480.30551649167791</v>
       </c>
       <c r="W16">
-        <v>407.2611996096398</v>
+        <v>407.26119960963979</v>
       </c>
       <c r="X16">
         <v>1048.257045807122</v>
       </c>
       <c r="Y16">
-        <v>267.3117152880083</v>
+        <v>267.31171528800832</v>
       </c>
       <c r="Z16">
-        <v>1.523544148339501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+        <v>1.5235441483395009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1845,16 +1934,16 @@
         <v>1029.721219445428</v>
       </c>
       <c r="H17">
-        <v>129.047148405853</v>
+        <v>129.04714840585299</v>
       </c>
       <c r="I17">
-        <v>900.674071039575</v>
+        <v>900.67407103957498</v>
       </c>
       <c r="J17">
         <v>0.1</v>
       </c>
       <c r="K17">
-        <v>909.1310308272384</v>
+        <v>909.13103082723842</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -1863,46 +1952,46 @@
         <v>0.1</v>
       </c>
       <c r="N17">
-        <v>0.9906977547780232</v>
+        <v>0.99069775477802324</v>
       </c>
       <c r="O17">
         <v>1052.346607257195</v>
       </c>
       <c r="P17">
-        <v>143.2155764299567</v>
+        <v>143.21557642995671</v>
       </c>
       <c r="Q17">
         <v>1.994426791048608</v>
       </c>
       <c r="R17">
-        <v>623.4980482998632</v>
+        <v>623.49804829986317</v>
       </c>
       <c r="S17">
-        <v>7.347989886923177</v>
+        <v>7.3479898869231768</v>
       </c>
       <c r="T17">
-        <v>7.979418624632888</v>
+        <v>7.9794186246328884</v>
       </c>
       <c r="U17">
         <v>2.076865554751703</v>
       </c>
       <c r="V17">
-        <v>632.6604935765278</v>
+        <v>632.66049357652776</v>
       </c>
       <c r="W17">
-        <v>216.2169890549362</v>
+        <v>216.21698905493619</v>
       </c>
       <c r="X17">
         <v>1116.891060094511</v>
       </c>
       <c r="Y17">
-        <v>207.7600292672728</v>
+        <v>207.76002926727281</v>
       </c>
       <c r="Z17">
-        <v>1.040705422585323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+        <v>1.0407054225853229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1922,19 +2011,19 @@
         <v>5</v>
       </c>
       <c r="G18">
-        <v>948.7061235429094</v>
+        <v>948.70612354290938</v>
       </c>
       <c r="H18">
         <v>114.4511249471861</v>
       </c>
       <c r="I18">
-        <v>834.2549985957234</v>
+        <v>834.25499859572335</v>
       </c>
       <c r="J18">
         <v>0.1</v>
       </c>
       <c r="K18">
-        <v>834.2549985957237</v>
+        <v>834.25499859572369</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -1943,46 +2032,46 @@
         <v>0.1</v>
       </c>
       <c r="N18">
-        <v>0.9999999999999996</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="O18">
-        <v>948.7061235429094</v>
+        <v>948.70612354290938</v>
       </c>
       <c r="P18">
         <v>114.4511249471861</v>
       </c>
       <c r="Q18">
-        <v>2.114951205536611</v>
+        <v>2.1149512055366109</v>
       </c>
       <c r="R18">
-        <v>592.1964539136509</v>
+        <v>592.19645391365088</v>
       </c>
       <c r="S18">
-        <v>8.289181290098229</v>
+        <v>8.2891812900982291</v>
       </c>
       <c r="T18">
-        <v>8.289181290098229</v>
+        <v>8.2891812900982291</v>
       </c>
       <c r="U18">
-        <v>2.114951205536611</v>
+        <v>2.1149512055366109</v>
       </c>
       <c r="V18">
-        <v>592.1964539136509</v>
+        <v>592.19645391365088</v>
       </c>
       <c r="W18">
-        <v>278.766138075437</v>
+        <v>278.76613807543703</v>
       </c>
       <c r="X18">
-        <v>1113.02113667116</v>
+        <v>1113.0211366711601</v>
       </c>
       <c r="Y18">
-        <v>278.7661380754366</v>
+        <v>278.76613807543657</v>
       </c>
       <c r="Z18">
-        <v>1.000000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+        <v>1.0000000000000011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2002,10 +2091,10 @@
         <v>5</v>
       </c>
       <c r="G19">
-        <v>875.852897326596</v>
+        <v>875.85289732659601</v>
       </c>
       <c r="H19">
-        <v>110.0006543611887</v>
+        <v>110.00065436118869</v>
       </c>
       <c r="I19">
         <v>765.8522429654073</v>
@@ -2014,7 +2103,7 @@
         <v>0.1</v>
       </c>
       <c r="K19">
-        <v>787.2133246551072</v>
+        <v>787.21332465510716</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -2023,37 +2112,37 @@
         <v>0.1</v>
       </c>
       <c r="N19">
-        <v>0.9728649388664012</v>
+        <v>0.97286493886640124</v>
       </c>
       <c r="O19">
-        <v>955.0233123213148</v>
+        <v>955.02331232131485</v>
       </c>
       <c r="P19">
-        <v>167.8099876662077</v>
+        <v>167.80998766620769</v>
       </c>
       <c r="Q19">
-        <v>1.738903437475937</v>
+        <v>1.7389034374759369</v>
       </c>
       <c r="R19">
-        <v>495.407960259544</v>
+        <v>495.40796025954398</v>
       </c>
       <c r="S19">
-        <v>5.691099353519768</v>
+        <v>5.6910993535197676</v>
       </c>
       <c r="T19">
-        <v>7.962251701255525</v>
+        <v>7.9622517012555249</v>
       </c>
       <c r="U19">
         <v>2.074711836896276</v>
       </c>
       <c r="V19">
-        <v>537.632583295913</v>
+        <v>537.63258329591304</v>
       </c>
       <c r="W19">
-        <v>275.9973801890213</v>
+        <v>275.99738018902133</v>
       </c>
       <c r="X19">
-        <v>1041.849623154429</v>
+        <v>1041.8496231544291</v>
       </c>
       <c r="Y19">
         <v>254.6362984993215</v>
@@ -2062,7 +2151,7 @@
         <v>1.083888596463229</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2085,16 +2174,16 @@
         <v>998.444561367814</v>
       </c>
       <c r="H20">
-        <v>143.6211987556318</v>
+        <v>143.62119875563181</v>
       </c>
       <c r="I20">
-        <v>854.8233626121821</v>
+        <v>854.82336261218211</v>
       </c>
       <c r="J20">
         <v>0.1</v>
       </c>
       <c r="K20">
-        <v>879.1030524340025</v>
+        <v>879.10305243400251</v>
       </c>
       <c r="L20">
         <v>5</v>
@@ -2103,46 +2192,46 @@
         <v>0.1</v>
       </c>
       <c r="N20">
-        <v>0.9723812927795025</v>
+        <v>0.97238129277950247</v>
       </c>
       <c r="O20">
         <v>1027.540691428226</v>
       </c>
       <c r="P20">
-        <v>148.4376389942236</v>
+        <v>148.43763899422359</v>
       </c>
       <c r="Q20">
         <v>1.934758617338814</v>
       </c>
       <c r="R20">
-        <v>591.9120512525005</v>
+        <v>591.91205125250053</v>
       </c>
       <c r="S20">
-        <v>6.922372912898546</v>
+        <v>6.9223729128985463</v>
       </c>
       <c r="T20">
-        <v>6.951930286187379</v>
+        <v>6.9519302861873786</v>
       </c>
       <c r="U20">
-        <v>1.939019360034126</v>
+        <v>1.9390193600341259</v>
       </c>
       <c r="V20">
-        <v>576.3390777137029</v>
+        <v>576.33907771370286</v>
       </c>
       <c r="W20">
         <v>209.7128561382506</v>
       </c>
       <c r="X20">
-        <v>1064.536218750433</v>
+        <v>1064.5362187504329</v>
       </c>
       <c r="Y20">
         <v>185.4331663164302</v>
       </c>
       <c r="Z20">
-        <v>1.130934990240034</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>1.1309349902400341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2162,19 +2251,19 @@
         <v>5</v>
       </c>
       <c r="G21">
-        <v>831.0988478166014</v>
+        <v>831.09884781660139</v>
       </c>
       <c r="H21">
-        <v>119.4532791138085</v>
+        <v>119.45327911380851</v>
       </c>
       <c r="I21">
-        <v>711.6455687027928</v>
+        <v>711.64556870279284</v>
       </c>
       <c r="J21">
         <v>0.1</v>
       </c>
       <c r="K21">
-        <v>743.7606768681932</v>
+        <v>743.76067686819317</v>
       </c>
       <c r="L21">
         <v>5</v>
@@ -2183,46 +2272,46 @@
         <v>0.1</v>
       </c>
       <c r="N21">
-        <v>0.9568206424939946</v>
+        <v>0.95682064249399457</v>
       </c>
       <c r="O21">
-        <v>912.6283812662734</v>
+        <v>912.62838126627344</v>
       </c>
       <c r="P21">
-        <v>168.8677043980802</v>
+        <v>168.86770439808021</v>
       </c>
       <c r="Q21">
         <v>1.687213173207651</v>
       </c>
       <c r="R21">
-        <v>458.8448614784166</v>
+        <v>458.84486147841659</v>
       </c>
       <c r="S21">
-        <v>5.404398576502759</v>
+        <v>5.4043985765027589</v>
       </c>
       <c r="T21">
-        <v>6.957522254577674</v>
+        <v>6.9575222545776736</v>
       </c>
       <c r="U21">
-        <v>1.939823413058524</v>
+        <v>1.9398234130585239</v>
       </c>
       <c r="V21">
-        <v>479.9273011112123</v>
+        <v>479.92730111121227</v>
       </c>
       <c r="W21">
-        <v>285.572394537836</v>
+        <v>285.57239453783598</v>
       </c>
       <c r="X21">
-        <v>997.2179632406288</v>
+        <v>997.21796324062882</v>
       </c>
       <c r="Y21">
-        <v>253.4572863724356</v>
+        <v>253.45728637243559</v>
       </c>
       <c r="Z21">
-        <v>1.126708166985619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>1.1267081669856189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2242,13 +2331,13 @@
         <v>5</v>
       </c>
       <c r="G22">
-        <v>926.0395349805377</v>
+        <v>926.03953498053772</v>
       </c>
       <c r="H22">
-        <v>14.7800817787106</v>
+        <v>14.780081778710599</v>
       </c>
       <c r="I22">
-        <v>911.2594532018271</v>
+        <v>911.25945320182711</v>
       </c>
       <c r="J22">
         <v>0.1</v>
@@ -2263,46 +2352,46 @@
         <v>0.1</v>
       </c>
       <c r="N22">
-        <v>0.910595300654899</v>
+        <v>0.91059530065489902</v>
       </c>
       <c r="O22">
         <v>1036.769731819194</v>
       </c>
       <c r="P22">
-        <v>36.04037098628621</v>
+        <v>36.040370986286213</v>
       </c>
       <c r="Q22">
         <v>3.359225404900346</v>
       </c>
       <c r="R22">
-        <v>879.6616310137418</v>
+        <v>879.66163101374184</v>
       </c>
       <c r="S22">
-        <v>28.7668995475573</v>
+        <v>28.766899547557301</v>
       </c>
       <c r="T22">
-        <v>62.65456097234968</v>
+        <v>62.654560972349678</v>
       </c>
       <c r="U22">
-        <v>4.137636479527814</v>
+        <v>4.1376364795278144</v>
       </c>
       <c r="V22">
-        <v>850.1048476638298</v>
+        <v>850.10484766382979</v>
       </c>
       <c r="W22">
         <v>125.5102786173676</v>
       </c>
       <c r="X22">
-        <v>1036.769731819195</v>
+        <v>1036.7697318191949</v>
       </c>
       <c r="Y22">
-        <v>36.04037098628635</v>
+        <v>36.040370986286348</v>
       </c>
       <c r="Z22">
         <v>3.482491305794972</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2334,7 +2423,7 @@
         <v>0.1</v>
       </c>
       <c r="K23">
-        <v>984.1184430635315</v>
+        <v>984.11844306353146</v>
       </c>
       <c r="L23">
         <v>5</v>
@@ -2343,46 +2432,46 @@
         <v>0.1</v>
       </c>
       <c r="N23">
-        <v>0.8923082739857393</v>
+        <v>0.89230827398573931</v>
       </c>
       <c r="O23">
         <v>1022.390911310949</v>
       </c>
       <c r="P23">
-        <v>38.27246824741734</v>
+        <v>38.272468247417343</v>
       </c>
       <c r="Q23">
         <v>3.285168401042013</v>
       </c>
       <c r="R23">
-        <v>858.3869397472324</v>
+        <v>858.38693974723242</v>
       </c>
       <c r="S23">
-        <v>26.71348251441663</v>
+        <v>26.713482514416629</v>
       </c>
       <c r="T23">
-        <v>56.57702708084008</v>
+        <v>56.577027080840082</v>
       </c>
       <c r="U23">
-        <v>4.035603020852801</v>
+        <v>4.0356030208528013</v>
       </c>
       <c r="V23">
-        <v>814.3730492369608</v>
+        <v>814.37304923696081</v>
       </c>
       <c r="W23">
-        <v>148.7708294428099</v>
+        <v>148.77082944280991</v>
       </c>
       <c r="X23">
         <v>1026.907858770363</v>
       </c>
       <c r="Y23">
-        <v>42.78941570683128</v>
+        <v>42.789415706831278</v>
       </c>
       <c r="Z23">
-        <v>3.476813763060075</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>3.4768137630600751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2402,7 +2491,7 @@
         <v>5</v>
       </c>
       <c r="G24">
-        <v>942.2309305011347</v>
+        <v>942.23093050113471</v>
       </c>
       <c r="H24">
         <v>23.67851973232619</v>
@@ -2414,7 +2503,7 @@
         <v>0.1</v>
       </c>
       <c r="K24">
-        <v>965.2294065297751</v>
+        <v>965.22940652977513</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -2423,16 +2512,16 @@
         <v>0.1</v>
       </c>
       <c r="N24">
-        <v>0.9516415523136812</v>
+        <v>0.95164155231368119</v>
       </c>
       <c r="O24">
         <v>1023.306255524124</v>
       </c>
       <c r="P24">
-        <v>58.07684899434899</v>
+        <v>58.076848994348993</v>
       </c>
       <c r="Q24">
-        <v>2.869026974970488</v>
+        <v>2.8690269749704882</v>
       </c>
       <c r="R24">
         <v>798.6053601437003</v>
@@ -2441,13 +2530,13 @@
         <v>17.61986528614344</v>
       </c>
       <c r="T24">
-        <v>39.79264502817674</v>
+        <v>39.792645028176743</v>
       </c>
       <c r="U24">
-        <v>3.683682096926068</v>
+        <v>3.6836820969260682</v>
       </c>
       <c r="V24">
-        <v>831.3282715491279</v>
+        <v>831.32827154912786</v>
       </c>
       <c r="W24">
         <v>127.3241863213667</v>
@@ -2456,13 +2545,13 @@
         <v>1045.876597090175</v>
       </c>
       <c r="Y24">
-        <v>80.64719056040008</v>
+        <v>80.647190560400077</v>
       </c>
       <c r="Z24">
-        <v>1.578780183619766</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>1.5787801836197659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2482,19 +2571,19 @@
         <v>5</v>
       </c>
       <c r="G25">
-        <v>781.0141908130315</v>
+        <v>781.01419081303152</v>
       </c>
       <c r="H25">
         <v>13.61856425999912</v>
       </c>
       <c r="I25">
-        <v>767.3956265530325</v>
+        <v>767.39562655303246</v>
       </c>
       <c r="J25">
         <v>0.1</v>
       </c>
       <c r="K25">
-        <v>959.3909234840939</v>
+        <v>959.39092348409395</v>
       </c>
       <c r="L25">
         <v>5</v>
@@ -2503,46 +2592,46 @@
         <v>0.1</v>
       </c>
       <c r="N25">
-        <v>0.799877930641852</v>
+        <v>0.79987793064185198</v>
       </c>
       <c r="O25">
-        <v>997.8073086360793</v>
+        <v>997.80730863607926</v>
       </c>
       <c r="P25">
-        <v>38.41638515198547</v>
+        <v>38.416385151985473</v>
       </c>
       <c r="Q25">
-        <v>3.257076114899807</v>
+        <v>3.2570761148998071</v>
       </c>
       <c r="R25">
-        <v>834.2658329847703</v>
+        <v>834.26583298477033</v>
       </c>
       <c r="S25">
-        <v>25.97348253065683</v>
+        <v>25.973482530656831</v>
       </c>
       <c r="T25">
-        <v>57.34923123335779</v>
+        <v>57.349231233357791</v>
       </c>
       <c r="U25">
         <v>4.049159438661782</v>
       </c>
       <c r="V25">
-        <v>712.2518885386351</v>
+        <v>712.25188853863506</v>
       </c>
       <c r="W25">
-        <v>257.705558986088</v>
+        <v>257.70555898608802</v>
       </c>
       <c r="X25">
         <v>1025.10118553912</v>
       </c>
       <c r="Y25">
-        <v>65.71026205502653</v>
+        <v>65.710262055026533</v>
       </c>
       <c r="Z25">
-        <v>3.921846465477225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+        <v>3.9218464654772252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2562,19 +2651,19 @@
         <v>5</v>
       </c>
       <c r="G26">
-        <v>926.7358994610718</v>
+        <v>926.73589946107177</v>
       </c>
       <c r="H26">
         <v>16.83935155942903</v>
       </c>
       <c r="I26">
-        <v>909.8965479016427</v>
+        <v>909.89654790164275</v>
       </c>
       <c r="J26">
         <v>0.1</v>
       </c>
       <c r="K26">
-        <v>958.7965423827778</v>
+        <v>958.79654238277783</v>
       </c>
       <c r="L26">
         <v>5</v>
@@ -2583,31 +2672,31 @@
         <v>0.1</v>
       </c>
       <c r="N26">
-        <v>0.9489985702705915</v>
+        <v>0.94899857027059153</v>
       </c>
       <c r="O26">
-        <v>998.7501822846477</v>
+        <v>998.75018228464774</v>
       </c>
       <c r="P26">
-        <v>39.95363990186998</v>
+        <v>39.953639901869977</v>
       </c>
       <c r="Q26">
         <v>3.218784900095323</v>
       </c>
       <c r="R26">
-        <v>830.1943695627926</v>
+        <v>830.19436956279264</v>
       </c>
       <c r="S26">
         <v>24.99772698401636</v>
       </c>
       <c r="T26">
-        <v>55.03394214382057</v>
+        <v>55.033942143820568</v>
       </c>
       <c r="U26">
-        <v>4.007950124773777</v>
+        <v>4.0079501247737772</v>
       </c>
       <c r="V26">
-        <v>842.4052667179196</v>
+        <v>842.40526671791963</v>
       </c>
       <c r="W26">
         <v>93.83807155404179</v>
@@ -2616,13 +2705,13 @@
         <v>1003.734619455685</v>
       </c>
       <c r="Y26">
-        <v>44.93807707290671</v>
+        <v>44.938077072906708</v>
       </c>
       <c r="Z26">
-        <v>2.088163928371938</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+        <v>2.0881639283719382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2645,16 +2734,16 @@
         <v>1013.87825301051</v>
       </c>
       <c r="H27">
-        <v>21.37586284103526</v>
+        <v>21.375862841035261</v>
       </c>
       <c r="I27">
-        <v>992.5023901694751</v>
+        <v>992.50239016947512</v>
       </c>
       <c r="J27">
         <v>0.1</v>
       </c>
       <c r="K27">
-        <v>1024.121202969384</v>
+        <v>1024.1212029693841</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -2663,13 +2752,13 @@
         <v>0.1</v>
       </c>
       <c r="N27">
-        <v>0.9691259074529148</v>
+        <v>0.96912590745291483</v>
       </c>
       <c r="O27">
-        <v>1062.715931400235</v>
+        <v>1062.7159314002349</v>
       </c>
       <c r="P27">
-        <v>38.59472843085153</v>
+        <v>38.594728430851532</v>
       </c>
       <c r="Q27">
         <v>3.315467411707961</v>
@@ -2678,31 +2767,31 @@
         <v>896.1616385931768</v>
       </c>
       <c r="S27">
-        <v>27.5352612806761</v>
+        <v>27.535261280676099</v>
       </c>
       <c r="T27">
-        <v>47.43098608698814</v>
+        <v>47.430986086988142</v>
       </c>
       <c r="U27">
-        <v>3.859275730037872</v>
+        <v>3.8592757300378722</v>
       </c>
       <c r="V27">
-        <v>910.0070414984493</v>
+        <v>910.00704149844933</v>
       </c>
       <c r="W27">
-        <v>87.45804616575697</v>
+        <v>87.458046165756969</v>
       </c>
       <c r="X27">
-        <v>1079.960436335232</v>
+        <v>1079.9604363352321</v>
       </c>
       <c r="Y27">
-        <v>55.83923336584803</v>
+        <v>55.839233365848031</v>
       </c>
       <c r="Z27">
         <v>1.566247258316541</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2722,19 +2811,19 @@
         <v>5</v>
       </c>
       <c r="G28">
-        <v>923.1304655380359</v>
+        <v>923.13046553803588</v>
       </c>
       <c r="H28">
-        <v>24.17545169159135</v>
+        <v>24.175451691591348</v>
       </c>
       <c r="I28">
-        <v>898.9550138464446</v>
+        <v>898.95501384644456</v>
       </c>
       <c r="J28">
         <v>0.1</v>
       </c>
       <c r="K28">
-        <v>1008.36401857119</v>
+        <v>1008.3640185711899</v>
       </c>
       <c r="L28">
         <v>4</v>
@@ -2743,46 +2832,46 @@
         <v>0.08</v>
       </c>
       <c r="N28">
-        <v>0.8914985038044358</v>
+        <v>0.89149850380443585</v>
       </c>
       <c r="O28">
-        <v>1050.433754446795</v>
+        <v>1050.4337544467951</v>
       </c>
       <c r="P28">
-        <v>42.06973587560447</v>
+        <v>42.069735875604472</v>
       </c>
       <c r="Q28">
-        <v>3.217629837952286</v>
+        <v>3.2176298379522859</v>
       </c>
       <c r="R28">
-        <v>872.9991811430734</v>
+        <v>872.99918114307343</v>
       </c>
       <c r="S28">
-        <v>24.96886972508718</v>
+        <v>24.968869725087181</v>
       </c>
       <c r="T28">
-        <v>38.18462121471413</v>
+        <v>38.184621214714127</v>
       </c>
       <c r="U28">
-        <v>3.642432848550781</v>
+        <v>3.6424328485507811</v>
       </c>
       <c r="V28">
-        <v>810.8975544764397</v>
+        <v>810.89755447643972</v>
       </c>
       <c r="W28">
-        <v>159.4577373036578</v>
+        <v>159.45773730365781</v>
       </c>
       <c r="X28">
-        <v>1058.412751150102</v>
+        <v>1058.4127511501019</v>
       </c>
       <c r="Y28">
-        <v>50.048732578912</v>
+        <v>50.048732578912002</v>
       </c>
       <c r="Z28">
-        <v>3.186049457940625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>3.1860494579406251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2802,19 +2891,19 @@
         <v>5</v>
       </c>
       <c r="G29">
-        <v>791.071260133076</v>
+        <v>791.07126013307595</v>
       </c>
       <c r="H29">
-        <v>13.53663483362124</v>
+        <v>13.536634833621241</v>
       </c>
       <c r="I29">
-        <v>777.5346252994547</v>
+        <v>777.53462529945466</v>
       </c>
       <c r="J29">
         <v>0.1</v>
       </c>
       <c r="K29">
-        <v>946.7134328577694</v>
+        <v>946.71343285776936</v>
       </c>
       <c r="L29">
         <v>5</v>
@@ -2823,46 +2912,46 @@
         <v>0.1</v>
       </c>
       <c r="N29">
-        <v>0.8212988200160761</v>
+        <v>0.82129882001607613</v>
       </c>
       <c r="O29">
-        <v>991.5843171570513</v>
+        <v>991.58431715705126</v>
       </c>
       <c r="P29">
-        <v>44.87088429928183</v>
+        <v>44.870884299281833</v>
       </c>
       <c r="Q29">
-        <v>3.095514856518031</v>
+        <v>3.0955148565180308</v>
       </c>
       <c r="R29">
-        <v>807.814943884241</v>
+        <v>807.81494388424096</v>
       </c>
       <c r="S29">
         <v>22.09861322418649</v>
       </c>
       <c r="T29">
-        <v>58.43928493721903</v>
+        <v>58.439284937219028</v>
       </c>
       <c r="U29">
-        <v>4.067988350962654</v>
+        <v>4.0679883509626542</v>
       </c>
       <c r="V29">
-        <v>722.4677524850482</v>
+        <v>722.46775248504821</v>
       </c>
       <c r="W29">
         <v>214.0496918575966</v>
       </c>
       <c r="X29">
-        <v>991.5843171570513</v>
+        <v>991.58431715705126</v>
       </c>
       <c r="Y29">
-        <v>44.8708842992819</v>
+        <v>44.870884299281897</v>
       </c>
       <c r="Z29">
-        <v>4.77034707918654</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>4.7703470791865401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2885,7 +2974,7 @@
         <v>1017.3704227067</v>
       </c>
       <c r="H30">
-        <v>17.18095752786117</v>
+        <v>17.180957527861171</v>
       </c>
       <c r="I30">
         <v>1000.189465178839</v>
@@ -2903,46 +2992,46 @@
         <v>0.1</v>
       </c>
       <c r="N30">
-        <v>0.9833162085501495</v>
+        <v>0.98331620855014945</v>
       </c>
       <c r="O30">
         <v>1055.333187833389</v>
       </c>
       <c r="P30">
-        <v>38.17364497019444</v>
+        <v>38.173644970194438</v>
       </c>
       <c r="Q30">
-        <v>3.319466458641325</v>
+        <v>3.3194664586413252</v>
       </c>
       <c r="R30">
-        <v>890.4434087805516</v>
+        <v>890.44340878055164</v>
       </c>
       <c r="S30">
-        <v>27.64559655378419</v>
+        <v>27.645596553784191</v>
       </c>
       <c r="T30">
-        <v>59.21500132090431</v>
+        <v>59.215001320904307</v>
       </c>
       <c r="U30">
-        <v>4.081174910480379</v>
+        <v>4.0811749104803789</v>
       </c>
       <c r="V30">
-        <v>930.0709723781027</v>
+        <v>930.07097237810274</v>
       </c>
       <c r="W30">
-        <v>65.12314660673076</v>
+        <v>65.123146606730757</v>
       </c>
       <c r="X30">
         <v>1065.31261178557</v>
       </c>
       <c r="Y30">
-        <v>48.15306892237595</v>
+        <v>48.153068922375951</v>
       </c>
       <c r="Z30">
-        <v>1.352419442086049</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>1.3524194420860489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2968,13 +3057,13 @@
         <v>14.47972343892466</v>
       </c>
       <c r="I31">
-        <v>1083.529862951099</v>
+        <v>1083.5298629510989</v>
       </c>
       <c r="J31">
         <v>0.1</v>
       </c>
       <c r="K31">
-        <v>1138.749949157878</v>
+        <v>1138.7499491578781</v>
       </c>
       <c r="L31">
         <v>5</v>
@@ -2983,16 +3072,16 @@
         <v>0.1</v>
       </c>
       <c r="N31">
-        <v>0.9515081548432872</v>
+        <v>0.95150815484328721</v>
       </c>
       <c r="O31">
         <v>1178.020423444158</v>
       </c>
       <c r="P31">
-        <v>39.27047428628014</v>
+        <v>39.270474286280141</v>
       </c>
       <c r="Q31">
-        <v>3.40111775536048</v>
+        <v>3.4011177553604801</v>
       </c>
       <c r="R31">
         <v>1005.186441801383</v>
@@ -3001,28 +3090,71 @@
         <v>29.99761130605242</v>
       </c>
       <c r="T31">
-        <v>75.83083965805137</v>
+        <v>75.830839658051374</v>
       </c>
       <c r="U31">
-        <v>4.328505065552125</v>
+        <v>4.3285050655521253</v>
       </c>
       <c r="V31">
         <v>1020.85430669792</v>
       </c>
       <c r="W31">
-        <v>97.34211646386848</v>
+        <v>97.342116463868479</v>
       </c>
       <c r="X31">
-        <v>1180.871979414968</v>
+        <v>1180.8719794149681</v>
       </c>
       <c r="Y31">
-        <v>42.12203025709005</v>
+        <v>42.122030257090053</v>
       </c>
       <c r="Z31">
-        <v>2.310955000738211</v>
+        <v>2.3109550007382111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J32" s="2">
+        <f>AVERAGE(J2:J31)</f>
+        <v>0.10000000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="2">
+        <f>AVERAGE(N2:N31)</f>
+        <v>0.93413750890945757</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="2">
+        <f>AVERAGE(Z2:Z31)</f>
+        <v>1.7054035861170849</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="2">
+        <f>MIN(N2:N31)</f>
+        <v>0.79987793064185198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2">
+        <f>MAX(Z2:Z31)</f>
+        <v>4.7703470791865401</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>